--- a/ScreenplayPractice/Resources/ExcelUserData.xlsx
+++ b/ScreenplayPractice/Resources/ExcelUserData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\TestAutmoation\ScreenplayPractice\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD0E978-D3D4-428F-895B-60950E229EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB6EA71-3055-47F2-8888-6E359535C833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32085" yWindow="2430" windowWidth="17280" windowHeight="9075" xr2:uid="{41985104-611A-44FB-8F2A-E722EEB61F0B}"/>
   </bookViews>
@@ -66,15 +66,6 @@
     <t>3205436585</t>
   </si>
   <si>
-    <t>Estrada</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>felipe@hotmail.com</t>
-  </si>
-  <si>
     <t>Computer Science</t>
   </si>
   <si>
@@ -91,6 +82,15 @@
   </si>
   <si>
     <t>23 February,2001</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>carlos.s@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,13 +475,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -504,22 +504,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
